--- a/results/cpp/cppoverall.xlsx
+++ b/results/cpp/cppoverall.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/cpp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CB1B1E-C3A0-9649-9046-296B2249ED49}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D730E-824D-C349-BF29-148F5424AF52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{33756B84-586D-F94F-8C5B-AC5013A02B04}"/>
+    <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{33756B84-586D-F94F-8C5B-AC5013A02B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="37">
   <si>
     <t>MAX</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>xgboost</t>
+  </si>
+  <si>
+    <t>OVERALL</t>
+  </si>
+  <si>
+    <t>REPOS:</t>
   </si>
 </sst>
 </file>
@@ -654,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F909F059-1D64-FE44-9438-3B115CE1E760}">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AG24" sqref="AG24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2673,9 +2679,15 @@
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="5"/>
-      <c r="AG31" t="s">
+      <c r="AG31" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="AH31" s="4"/>
+      <c r="AI31" s="4"/>
+      <c r="AJ31" s="4"/>
+      <c r="AK31" s="4"/>
+      <c r="AL31" s="4"/>
+      <c r="AM31" s="5"/>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
@@ -2746,6 +2758,13 @@
       <c r="AE32" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="AG32" s="6"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="12"/>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -2824,6 +2843,13 @@
       <c r="AE33" s="11">
         <v>1.633066811041882</v>
       </c>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="12"/>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
@@ -2902,6 +2928,13 @@
       <c r="AE34" s="11">
         <v>0.98226871549446415</v>
       </c>
+      <c r="AG34" s="6"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="12"/>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
@@ -2980,6 +3013,13 @@
       <c r="AE35" s="11">
         <v>0.28806402751736632</v>
       </c>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="12"/>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
@@ -3058,6 +3098,13 @@
       <c r="AE36" s="11">
         <v>0</v>
       </c>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="12"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
@@ -3088,6 +3135,13 @@
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="12"/>
+      <c r="AG37" s="6"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="12"/>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
@@ -3118,6 +3172,13 @@
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="12"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="12"/>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
@@ -3164,6 +3225,13 @@
       <c r="AC39" s="16"/>
       <c r="AD39" s="16"/>
       <c r="AE39" s="17"/>
+      <c r="AG39" s="13"/>
+      <c r="AH39" s="16"/>
+      <c r="AI39" s="16"/>
+      <c r="AJ39" s="16"/>
+      <c r="AK39" s="16"/>
+      <c r="AL39" s="16"/>
+      <c r="AM39" s="17"/>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.2">
       <c r="Z40" s="1"/>
@@ -3821,6 +3889,145 @@
       <c r="AL49" s="16"/>
       <c r="AM49" s="17"/>
     </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="2">
+        <f>SUM(C9,C19,C29,C39,C49,K49,K39,K29,K19,K9,S9,S19,S29,S39,S49,AA49,AA39,AA29,AA19,AA9,AI9,AI19,AI29,AI49)</f>
+        <v>175041</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="C56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="2">
+        <f>MAX(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
+        <v>36.641357027463648</v>
+      </c>
+      <c r="D57" s="2">
+        <f>MIN(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
+        <v>9.3694631557460699</v>
+      </c>
+      <c r="E57" s="2">
+        <f>AVERAGE(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
+        <v>19.482792327936838</v>
+      </c>
+      <c r="F57" s="2">
+        <f>_xlfn.STDEV.S(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
+        <v>6.2885515451627727</v>
+      </c>
+      <c r="G57" s="2">
+        <f>F57/SQRT(C53)</f>
+        <v>1.2836452089032933</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="2">
+        <f>MAX(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
+        <v>120.68723747980614</v>
+      </c>
+      <c r="D58" s="2">
+        <f>MIN(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
+        <v>49.721698113207545</v>
+      </c>
+      <c r="E58" s="2">
+        <f>AVERAGE(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
+        <v>74.961833748787541</v>
+      </c>
+      <c r="F58" s="2">
+        <f>_xlfn.STDEV.S(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
+        <v>14.899597781417677</v>
+      </c>
+      <c r="G58" s="2">
+        <f>F58/SQRT(C53)</f>
+        <v>3.0413676614314666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2">
+        <f>MAX(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
+        <v>12.534000000000001</v>
+      </c>
+      <c r="D59" s="2">
+        <f>MIN(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
+        <v>0.23120934509416613</v>
+      </c>
+      <c r="E59" s="2">
+        <f>AVERAGE(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
+        <v>4.4311954383950631</v>
+      </c>
+      <c r="F59" s="2">
+        <f>_xlfn.STDEV.S(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
+        <v>2.2521554103383421</v>
+      </c>
+      <c r="G59" s="2">
+        <f>F59/SQRT(C53)</f>
+        <v>0.45971929806478407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="2">
+        <f>MAX(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
+        <v>0.62551510404250243</v>
+      </c>
+      <c r="D60" s="2">
+        <f>MIN(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <f>AVERAGE(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
+        <v>4.9057172929661531E-2</v>
+      </c>
+      <c r="F60" s="2">
+        <f>_xlfn.STDEV.S(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
+        <v>0.14554973148892034</v>
+      </c>
+      <c r="G60" s="2">
+        <f>F60/SQRT(C53)</f>
+        <v>2.9710214528913013E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/cpp/cppoverall.xlsx
+++ b/results/cpp/cppoverall.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashort11/research/CodeSize/results/cpp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1D730E-824D-C349-BF29-148F5424AF52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C25DCF8-C066-EE4A-8233-CB6D783FBF27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="460" windowWidth="27800" windowHeight="17540" xr2:uid="{33756B84-586D-F94F-8C5B-AC5013A02B04}"/>
   </bookViews>
@@ -186,7 +186,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -319,12 +319,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -345,6 +360,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
@@ -662,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F909F059-1D64-FE44-9438-3B115CE1E760}">
   <dimension ref="A1:AM60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3890,140 +3907,171 @@
       <c r="AM49" s="17"/>
     </row>
     <row r="52" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="20" t="s">
         <v>35</v>
       </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="5"/>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B53" s="1" t="s">
+      <c r="A53" s="6"/>
+      <c r="B53" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="10">
         <v>24</v>
       </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B54" s="1" t="s">
+      <c r="A54" s="6"/>
+      <c r="B54" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="10">
         <f>SUM(C9,C19,C29,C39,C49,K49,K39,K29,K19,K9,S9,S19,S29,S39,S49,AA49,AA39,AA29,AA19,AA9,AI9,AI19,AI29,AI49)</f>
         <v>175041</v>
       </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="C56" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="10">
         <f>MAX(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
         <v>36.641357027463648</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="10">
         <f>MIN(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
         <v>9.3694631557460699</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="10">
         <f>AVERAGE(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
         <v>19.482792327936838</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="10">
         <f>_xlfn.STDEV.S(E3,E13,E23,E33,E43,M43,M33,M23,M13,M3,U3,U13,U23,U33,U43,AC43,AC33,AC23,AC13,AC3,AK3,AK13,AK23,AK43)</f>
         <v>6.2885515451627727</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="11">
         <f>F57/SQRT(C53)</f>
         <v>1.2836452089032933</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+      <c r="A58" s="6"/>
+      <c r="B58" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="10">
         <f>MAX(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
         <v>120.68723747980614</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="10">
         <f>MIN(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
         <v>49.721698113207545</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="10">
         <f>AVERAGE(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
         <v>74.961833748787541</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="10">
         <f>_xlfn.STDEV.S(E4,E14,E24,E34,E44,M44,M34,M24,M14,M4,U4,U14,U24,U34,U44,AC44,AC34,AC24,AC14,AC4,AK4,AK14,AK24,AK44)</f>
         <v>14.899597781417677</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="11">
         <f>F58/SQRT(C53)</f>
         <v>3.0413676614314666</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B59" s="1" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="10">
         <f>MAX(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
         <v>12.534000000000001</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="10">
         <f>MIN(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
         <v>0.23120934509416613</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="10">
         <f>AVERAGE(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
         <v>4.4311954383950631</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="10">
         <f>_xlfn.STDEV.S(E5,E15,E25,E35,E45,M45,M35,M25,M15,M5,U5,U15,U25,U35,U45,AC45,AC35,AC25,AC15,AC5,AK5,AK15,AK25,AK45)</f>
         <v>2.2521554103383421</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="11">
         <f>F59/SQRT(C53)</f>
         <v>0.45971929806478407</v>
       </c>
     </row>
     <row r="60" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B60" s="1" t="s">
+      <c r="A60" s="13"/>
+      <c r="B60" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="15">
         <f>MAX(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
         <v>0.62551510404250243</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="15">
         <f>MIN(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
         <v>0</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="15">
         <f>AVERAGE(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
         <v>4.9057172929661531E-2</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="15">
         <f>_xlfn.STDEV.S(E6,E16,E26,E36,E46,M46,M36,M26,M16,M6,U6,U16,U26,U36,U46,AC46,AC36,AC26,AC16,AC6,AK6,AK16,AK26,AK46)</f>
         <v>0.14554973148892034</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="21">
         <f>F60/SQRT(C53)</f>
         <v>2.9710214528913013E-2</v>
       </c>
